--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
@@ -10,7 +10,7 @@
     <sheet name="版本5.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>No</t>
   </si>
@@ -107,7 +107,13 @@
     <t>马丁组</t>
   </si>
   <si>
-    <t>李萌</t>
+    <t>李萌、张勋</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
   <si>
     <t>配置中心房源相关</t>
@@ -131,19 +137,10 @@
     <t>安栋</t>
   </si>
   <si>
-    <t>张勋</t>
-  </si>
-  <si>
     <t>Sonar代码规范（city,flat,host,orga,perm,,user）</t>
   </si>
   <si>
     <t>免测</t>
-  </si>
-  <si>
-    <t>图片等级定时器优化</t>
-  </si>
-  <si>
-    <t>定时器</t>
   </si>
   <si>
     <t>房东接收验证码有效时间调整15分钟</t>
@@ -163,12 +160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -179,12 +176,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -203,29 +194,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -238,25 +206,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,9 +226,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,43 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -344,8 +280,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,16 +302,55 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -384,121 +368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +410,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +524,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,47 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +635,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,8 +675,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,17 +707,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,163 +726,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="12">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="55" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -930,22 +914,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -963,34 +947,34 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="55" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="55" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="55" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,10 +1400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1554,9 +1538,15 @@
       <c r="N2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="20"/>
+      <c r="O2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -1574,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>24</v>
@@ -1596,7 +1586,7 @@
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>28</v>
@@ -1604,9 +1594,15 @@
       <c r="N3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
+      <c r="O3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
@@ -1624,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>24</v>
@@ -1646,17 +1642,23 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
@@ -1674,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>24</v>
@@ -1696,17 +1698,23 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
       <c r="T5" s="27"/>
@@ -1724,7 +1732,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>24</v>
@@ -1746,13 +1754,13 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O6" s="20"/>
       <c r="P6" s="13"/>
@@ -1763,7 +1771,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+    <row r="7" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:22">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1773,47 +1781,53 @@
       <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="13">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="13">
-        <v>42694</v>
+        <v>42695</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="20" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="R7" s="27"/>
       <c r="S7" s="27"/>
       <c r="T7" s="27"/>
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:22">
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1824,35 +1838,35 @@
         <v>22</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="13">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="13">
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="K8" s="11"/>
       <c r="L8" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O8" s="20"/>
       <c r="P8" s="13"/>
@@ -1863,47 +1877,21 @@
       <c r="U8" s="28"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13">
-        <v>42696</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="13">
-        <v>42696</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>39</v>
-      </c>
+    <row r="9" s="3" customFormat="1" ht="21" customHeight="1" spans="1:22">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="20"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="20"/>
@@ -1913,10 +1901,8 @@
       <c r="U9" s="28"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" s="3" customFormat="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
+    <row r="10" s="2" customFormat="1" ht="21" customHeight="1" spans="1:22">
+      <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="14"/>
@@ -1926,35 +1912,33 @@
       <c r="H10" s="13"/>
       <c r="I10" s="11"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="20"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="20"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="16.5" spans="1:22">
+      <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="14"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="13"/>
       <c r="K11" s="11"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="11"/>
+      <c r="M11" s="12"/>
       <c r="N11" s="11"/>
       <c r="O11" s="20"/>
       <c r="P11" s="13"/>
@@ -2019,13 +2003,13 @@
       <c r="C14" s="9"/>
       <c r="D14" s="14"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
       <c r="I14" s="22"/>
       <c r="J14" s="13"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="12"/>
       <c r="N14" s="11"/>
       <c r="O14" s="20"/>
@@ -2049,7 +2033,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="13"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11"/>
       <c r="O15" s="20"/>
@@ -2065,16 +2049,16 @@
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="11"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="11"/>
       <c r="O16" s="20"/>
       <c r="P16" s="13"/>
@@ -2234,16 +2218,16 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="11"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="20"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="20"/>
@@ -2282,17 +2266,17 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="18"/>
@@ -2340,8 +2324,8 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="13"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
@@ -2374,9 +2358,9 @@
       <c r="V28" s="26"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="15"/>
       <c r="E29" s="18"/>
       <c r="F29" s="11"/>
@@ -2389,12 +2373,12 @@
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="20"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="30"/>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
-      <c r="U29" s="25"/>
+      <c r="U29" s="30"/>
       <c r="V29" s="26"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="16.5" spans="1:22">
@@ -2421,10 +2405,10 @@
       <c r="U30" s="30"/>
       <c r="V30" s="26"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+    <row r="31" ht="16.5" spans="1:21">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="15"/>
       <c r="E31" s="18"/>
       <c r="F31" s="11"/>
@@ -2438,12 +2422,11 @@
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="19"/>
-      <c r="Q31" s="30"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="26"/>
+      <c r="U31" s="15"/>
     </row>
     <row r="32" ht="16.5" spans="1:21">
       <c r="A32" s="18"/>
@@ -3556,7 +3539,7 @@
       <c r="D80" s="15"/>
       <c r="E80" s="18"/>
       <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
+      <c r="G80" s="18"/>
       <c r="H80" s="19"/>
       <c r="I80" s="18"/>
       <c r="J80" s="19"/>
@@ -3687,13 +3670,13 @@
       <c r="T85" s="18"/>
       <c r="U85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:21">
+    <row r="86" spans="1:21">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="15"/>
       <c r="E86" s="18"/>
-      <c r="F86" s="11"/>
+      <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="19"/>
       <c r="I86" s="18"/>
@@ -5223,9 +5206,6 @@
       <c r="O152" s="18"/>
       <c r="P152" s="19"/>
       <c r="Q152" s="15"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
-      <c r="T152" s="18"/>
       <c r="U152" s="15"/>
     </row>
     <row r="153" spans="1:21">
@@ -5790,19 +5770,6 @@
     </row>
     <row r="181" spans="1:21">
       <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="18"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="24"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="18"/>
-      <c r="N181" s="18"/>
       <c r="O181" s="18"/>
       <c r="P181" s="19"/>
       <c r="Q181" s="15"/>
@@ -5817,7 +5784,6 @@
     </row>
     <row r="183" spans="1:21">
       <c r="A183" s="18"/>
-      <c r="O183" s="18"/>
       <c r="P183" s="19"/>
       <c r="Q183" s="15"/>
       <c r="U183" s="15"/>
@@ -5830,7 +5796,6 @@
     </row>
     <row r="185" spans="1:21">
       <c r="A185" s="18"/>
-      <c r="P185" s="19"/>
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
@@ -5839,13 +5804,8 @@
       <c r="Q186" s="15"/>
       <c r="U186" s="15"/>
     </row>
-    <row r="187" spans="1:21">
-      <c r="A187" s="18"/>
-      <c r="Q187" s="15"/>
-      <c r="U187" s="15"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U11"/>
+  <autoFilter ref="A1:U10"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
   <headerFooter/>
